--- a/项目设计/广大项目接口设计.xlsx
+++ b/项目设计/广大项目接口设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="1305" windowWidth="14445" windowHeight="10650" activeTab="2"/>
+    <workbookView xWindow="10755" yWindow="1305" windowWidth="14445" windowHeight="10650" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="学生订单" sheetId="10" r:id="rId8"/>
     <sheet name="学生-预订" sheetId="11" r:id="rId9"/>
     <sheet name="系统" sheetId="12" r:id="rId10"/>
+    <sheet name="推荐分享" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5095" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="1412">
   <si>
     <t>action名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3262,10 +3263,6 @@
   <si>
     <t>数据列表&lt;服务器按日期排序返回,只需要从当前日期开始返回&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetNowTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>score</t>
@@ -5665,15 +5662,159 @@
     <t>coachid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>返回消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/recomm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGETRECOMMENDLIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取推荐人员详细信息
+此接口和下面接口中返回的数据需要满足以下条件:
+教练已经审核通过.
+教练已经设置了当前使用地址
+教练不休息.且还有可以预定的空余时间.
+且教练的四证的过期时间未到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coachid</t>
+  </si>
+  <si>
+    <t>需要查询的教练ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecommendList</t>
+  </si>
+  <si>
+    <t>教练所推荐的人的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ——reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐所获得的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ——addtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人数总计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>所获得的推荐奖励金额总计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitlist</t>
+  </si>
+  <si>
+    <t>被推荐人详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——realname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被推荐人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderlist</t>
+  </si>
+  <si>
+    <t>被推荐人是否开单 1代表开单，其他代表未开单</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHEAKINVITECODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增推荐人员信息
+此接口和下面接口中返回的数据需要满足以下条件:
+教练已经审核通过.
+教练已经设置了当前使用地址
+教练不休息.且还有可以预定的空余时间.
+且教练的四证的过期时间未到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InviteCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练邀请码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvitedCoachid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被邀请教练的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRecommended</t>
+  </si>
+  <si>
+    <t>返回1代表新增成功,0代表已存在推荐信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5750,6 +5891,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6082,7 +6230,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6557,6 +6705,12 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6578,7 +6732,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6652,7 +6806,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6687,7 +6840,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6863,7 +7015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6914,27 +7066,27 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1"/>
@@ -7064,10 +7216,10 @@
       </c>
       <c r="D19" s="158"/>
       <c r="E19" s="59" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G19" s="30"/>
     </row>
@@ -7242,10 +7394,10 @@
       <c r="C32" s="107"/>
       <c r="D32" s="157"/>
       <c r="E32" s="61" t="s">
+        <v>968</v>
+      </c>
+      <c r="F32" s="62" t="s">
         <v>969</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>970</v>
       </c>
       <c r="G32" s="30"/>
     </row>
@@ -7254,10 +7406,10 @@
       <c r="C33" s="106"/>
       <c r="D33" s="157"/>
       <c r="E33" s="61" t="s">
+        <v>954</v>
+      </c>
+      <c r="F33" s="62" t="s">
         <v>955</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>956</v>
       </c>
       <c r="G33" s="30"/>
     </row>
@@ -7266,10 +7418,10 @@
       <c r="C34" s="102"/>
       <c r="D34" s="157"/>
       <c r="E34" s="80" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F34" s="81" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G34" s="30"/>
     </row>
@@ -7278,10 +7430,10 @@
       <c r="C35" s="123"/>
       <c r="D35" s="157"/>
       <c r="E35" s="80" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F35" s="81" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G35" s="30"/>
     </row>
@@ -7294,7 +7446,7 @@
         <v>507</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F36" s="81" t="s">
         <v>272</v>
@@ -7322,7 +7474,7 @@
       </c>
       <c r="D38" s="153"/>
       <c r="E38" s="80" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F38" s="81" t="s">
         <v>578</v>
@@ -7334,10 +7486,10 @@
       <c r="C39" s="103"/>
       <c r="D39" s="104"/>
       <c r="E39" s="80" t="s">
+        <v>902</v>
+      </c>
+      <c r="F39" s="81" t="s">
         <v>903</v>
-      </c>
-      <c r="F39" s="81" t="s">
-        <v>904</v>
       </c>
       <c r="G39" s="30"/>
     </row>
@@ -7406,7 +7558,7 @@
       </c>
       <c r="D44" s="155"/>
       <c r="E44" s="63" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F44" s="64" t="s">
         <v>504</v>
@@ -7469,10 +7621,10 @@
         <v>509</v>
       </c>
       <c r="E52" s="80" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F52" s="81" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G52" s="30"/>
     </row>
@@ -7581,10 +7733,10 @@
       </c>
       <c r="D60" s="138"/>
       <c r="E60" s="69" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F60" s="70" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G60" s="30"/>
     </row>
@@ -7598,7 +7750,7 @@
         <v>179</v>
       </c>
       <c r="F61" s="70" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G61" s="30"/>
     </row>
@@ -7609,10 +7761,10 @@
       </c>
       <c r="D62" s="138"/>
       <c r="E62" s="71" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F62" s="70" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G62" s="30"/>
     </row>
@@ -7828,7 +7980,7 @@
         <v>325</v>
       </c>
       <c r="F77" s="64" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G77" s="30"/>
     </row>
@@ -7842,7 +7994,7 @@
         <v>328</v>
       </c>
       <c r="F78" s="64" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G78" s="30"/>
     </row>
@@ -7883,7 +8035,7 @@
       </c>
       <c r="D81" s="143"/>
       <c r="E81" s="80" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F81" s="81" t="s">
         <v>497</v>
@@ -7923,10 +8075,10 @@
       <c r="C84" s="121"/>
       <c r="D84" s="143"/>
       <c r="E84" s="99" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F84" s="100" t="s">
         <v>1111</v>
-      </c>
-      <c r="F84" s="100" t="s">
-        <v>1112</v>
       </c>
       <c r="G84" s="76"/>
     </row>
@@ -7955,7 +8107,7 @@
         <v>594</v>
       </c>
       <c r="E86" s="78" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F86" s="79" t="s">
         <v>683</v>
@@ -8091,11 +8243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G61"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8199,7 +8351,7 @@
         <v>603</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -8335,10 +8487,10 @@
     </row>
     <row r="17" spans="2:7" ht="20.25" customHeight="1">
       <c r="B17" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="C17" s="160" t="s">
         <v>984</v>
-      </c>
-      <c r="C17" s="160" t="s">
-        <v>985</v>
       </c>
       <c r="D17" s="161"/>
       <c r="E17" s="9" t="s">
@@ -8421,13 +8573,13 @@
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1">
       <c r="B22" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>987</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>988</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
@@ -8435,13 +8587,13 @@
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1">
       <c r="B23" s="23" t="s">
+        <v>988</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>989</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>987</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>990</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -8449,13 +8601,13 @@
     </row>
     <row r="24" spans="2:7" ht="14.25" customHeight="1">
       <c r="B24" s="23" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>344</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -8463,13 +8615,13 @@
     </row>
     <row r="25" spans="2:7" ht="14.25" customHeight="1">
       <c r="B25" s="23" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>1209</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>1210</v>
-      </c>
       <c r="D25" s="25" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -8519,10 +8671,10 @@
     </row>
     <row r="31" spans="2:7" ht="20.25" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C31" s="160" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D31" s="161"/>
       <c r="E31" s="9" t="s">
@@ -8553,13 +8705,13 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="45" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -8569,13 +8721,13 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="45" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -8585,13 +8737,13 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="45" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -8601,13 +8753,13 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="45" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -8617,50 +8769,50 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="45" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="22" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="45" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="22" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="45" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="22" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -8727,10 +8879,10 @@
     </row>
     <row r="46" spans="2:7" ht="20.25" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C46" s="160" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D46" s="161"/>
       <c r="E46" s="9" t="s">
@@ -8761,13 +8913,13 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="45" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
@@ -8777,13 +8929,13 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="45" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
@@ -8793,13 +8945,13 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="45" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
@@ -8807,13 +8959,13 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="45" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -8843,13 +8995,13 @@
     </row>
     <row r="53" spans="2:7" ht="14.25" customHeight="1">
       <c r="B53" s="23" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C53" s="24" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D53" s="25" t="s">
         <v>1316</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>1317</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
@@ -8857,13 +9009,13 @@
     </row>
     <row r="54" spans="2:7" ht="14.25" customHeight="1">
       <c r="B54" s="47" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
@@ -8871,13 +9023,13 @@
     </row>
     <row r="55" spans="2:7" ht="14.25" customHeight="1">
       <c r="B55" s="47" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -8885,13 +9037,13 @@
     </row>
     <row r="56" spans="2:7" ht="14.25" customHeight="1">
       <c r="B56" s="47" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
@@ -8899,13 +9051,13 @@
     </row>
     <row r="57" spans="2:7" ht="14.25" customHeight="1">
       <c r="B57" s="47" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
@@ -8913,13 +9065,13 @@
     </row>
     <row r="58" spans="2:7" ht="14.25" customHeight="1">
       <c r="B58" s="47" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
@@ -8927,13 +9079,13 @@
     </row>
     <row r="59" spans="2:7" ht="14.25" customHeight="1">
       <c r="B59" s="47" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D59" s="25" t="s">
         <v>1332</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>1333</v>
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
@@ -8961,7 +9113,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
@@ -8984,12 +9136,478 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8">
+      <c r="C1" s="170" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="159"/>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D3" s="160" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E3" s="161"/>
+      <c r="F3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="24">
+      <c r="C5" s="26" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="24">
+      <c r="C8" s="23" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="3:8" ht="24">
+      <c r="C9" s="23" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="23" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="3:8" ht="24">
+      <c r="C11" s="171" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="3:8" ht="36">
+      <c r="C12" s="171" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="3:8" ht="24">
+      <c r="C13" s="171" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="3:8" ht="24">
+      <c r="C14" s="47" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="3:8" ht="24">
+      <c r="C15" s="47" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="3:8" ht="60">
+      <c r="C16" s="171" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="159"/>
+      <c r="F21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D22" s="160" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E22" s="161"/>
+      <c r="F22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="26" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="24">
+      <c r="C25" s="26" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="48">
+      <c r="C27" s="23" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="47"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="47"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="47"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="47"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="47"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="47"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:G186"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9020,7 +9638,7 @@
         <v>110</v>
       </c>
       <c r="G3" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1">
@@ -9038,7 +9656,7 @@
         <v>109</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -9079,13 +9697,13 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="26" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -9323,13 +9941,13 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="42" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -9337,13 +9955,13 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="42" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -9351,13 +9969,13 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="42" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
@@ -9371,7 +9989,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
@@ -9379,13 +9997,13 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="42" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
@@ -9435,7 +10053,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>13</v>
@@ -9519,13 +10137,13 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="42" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
@@ -9561,13 +10179,13 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="42" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C41" s="24" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>1371</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>1372</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
@@ -9645,13 +10263,13 @@
     </row>
     <row r="47" spans="2:7" ht="14.25" customHeight="1">
       <c r="B47" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C47" s="101" t="s">
         <v>215</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E47" s="51"/>
       <c r="F47" s="45"/>
@@ -9743,13 +10361,13 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="42" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>1206</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="D54" s="43" t="s">
         <v>1207</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>1208</v>
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
@@ -9757,13 +10375,13 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="42" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -9771,13 +10389,13 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="23" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>1086</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="D56" s="43" t="s">
         <v>1087</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>1088</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
@@ -9826,7 +10444,7 @@
         <v>110</v>
       </c>
       <c r="G63" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -9844,7 +10462,7 @@
         <v>109</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="65" spans="2:7">
@@ -9994,7 +10612,7 @@
         <v>108</v>
       </c>
       <c r="G74" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="75" spans="2:7">
@@ -10012,7 +10630,7 @@
         <v>109</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -10144,7 +10762,7 @@
         <v>108</v>
       </c>
       <c r="G85" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="26.25" customHeight="1">
@@ -10162,7 +10780,7 @@
         <v>109</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="87" spans="2:7">
@@ -10245,7 +10863,7 @@
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="47" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C92" s="24" t="s">
         <v>382</v>
@@ -10259,13 +10877,13 @@
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="47" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
@@ -10314,7 +10932,7 @@
         <v>110</v>
       </c>
       <c r="G98" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="26.25" customHeight="1">
@@ -10322,7 +10940,7 @@
         <v>636</v>
       </c>
       <c r="C99" s="160" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D99" s="161"/>
       <c r="E99" s="9" t="s">
@@ -10332,7 +10950,7 @@
         <v>109</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="100" spans="2:7">
@@ -10467,7 +11085,7 @@
         <v>10</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
@@ -10481,7 +11099,7 @@
         <v>10</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
@@ -10489,7 +11107,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="125" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C110" s="126" t="s">
         <v>10</v>
@@ -10505,13 +11123,13 @@
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="125" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C111" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="127" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
@@ -10525,7 +11143,7 @@
         <v>386</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
@@ -10535,13 +11153,13 @@
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="94" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
@@ -10551,13 +11169,13 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
@@ -10651,7 +11269,7 @@
         <v>124</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
@@ -10661,13 +11279,13 @@
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="14" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
@@ -10675,13 +11293,13 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
@@ -10779,7 +11397,7 @@
         <v>10</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
@@ -10787,13 +11405,13 @@
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
@@ -10801,13 +11419,13 @@
     </row>
     <row r="130" spans="2:7">
       <c r="B130" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E130" s="17"/>
       <c r="F130" s="17"/>
@@ -10862,7 +11480,7 @@
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="136" spans="2:7">
@@ -10878,7 +11496,7 @@
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="137" spans="2:7">
@@ -10925,7 +11543,7 @@
         <v>135</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E139" s="17"/>
       <c r="F139" s="17"/>
@@ -10941,7 +11559,7 @@
         <v>136</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E140" s="17"/>
       <c r="F140" s="17"/>
@@ -11106,12 +11724,12 @@
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="153" spans="2:7" ht="27" customHeight="1">
       <c r="B153" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C153" s="160" t="s">
         <v>476</v>
@@ -11122,7 +11740,7 @@
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="154" spans="2:7">
@@ -11147,13 +11765,13 @@
     </row>
     <row r="155" spans="2:7">
       <c r="B155" s="14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C155" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E155" s="17"/>
       <c r="F155" s="17"/>
@@ -11163,7 +11781,7 @@
     </row>
     <row r="156" spans="2:7">
       <c r="B156" s="26" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>70</v>
@@ -11364,15 +11982,15 @@
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="172" spans="2:7" ht="16.5" customHeight="1">
       <c r="B172" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C172" s="160" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D172" s="161"/>
       <c r="E172" s="9" t="s">
@@ -11380,7 +11998,7 @@
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="173" spans="2:7">
@@ -11405,13 +12023,13 @@
     </row>
     <row r="174" spans="2:7">
       <c r="B174" s="14" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E174" s="17"/>
       <c r="F174" s="17"/>
@@ -11469,13 +12087,13 @@
     </row>
     <row r="178" spans="2:7" ht="14.25" customHeight="1">
       <c r="B178" s="23" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C178" s="24" t="s">
         <v>344</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E178" s="25"/>
       <c r="F178" s="25"/>
@@ -11483,7 +12101,7 @@
     </row>
     <row r="179" spans="2:7" ht="14.25" customHeight="1">
       <c r="B179" s="23" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C179" s="24" t="s">
         <v>27</v>
@@ -11503,7 +12121,7 @@
         <v>17</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E180" s="25"/>
       <c r="F180" s="25"/>
@@ -11539,13 +12157,13 @@
     </row>
     <row r="183" spans="2:7" ht="14.25" customHeight="1">
       <c r="B183" s="47" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C183" s="24" t="s">
         <v>344</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E183" s="25"/>
       <c r="F183" s="25"/>
@@ -11553,13 +12171,13 @@
     </row>
     <row r="184" spans="2:7" ht="14.25" customHeight="1">
       <c r="B184" s="47" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C184" s="24" t="s">
         <v>344</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E184" s="25"/>
       <c r="F184" s="25"/>
@@ -11619,11 +12237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:G315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="I306" sqref="I306"/>
+    <sheetView topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="B291" sqref="B291:B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11652,7 +12270,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -11660,7 +12278,7 @@
         <v>517</v>
       </c>
       <c r="C4" s="162" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D4" s="163"/>
       <c r="E4" s="9" t="s">
@@ -11668,7 +12286,7 @@
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -11747,7 +12365,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -11848,7 +12466,7 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -11864,7 +12482,7 @@
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -11988,7 +12606,7 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -12004,7 +12622,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -12120,7 +12738,7 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="24.75" customHeight="1">
@@ -12136,7 +12754,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -12350,7 +12968,7 @@
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="24" customHeight="1">
@@ -12366,7 +12984,7 @@
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -12498,7 +13116,7 @@
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="24.75" customHeight="1">
@@ -12514,7 +13132,7 @@
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -12716,7 +13334,7 @@
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="128" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="24.75" customHeight="1">
@@ -12732,7 +13350,7 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -14227,7 +14845,7 @@
     </row>
     <row r="184" spans="2:7" ht="29.25" customHeight="1">
       <c r="B184" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C184" s="160" t="s">
         <v>271</v>
@@ -14297,13 +14915,13 @@
     </row>
     <row r="188" spans="2:7">
       <c r="B188" s="23" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C188" s="24" t="s">
         <v>215</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E188" s="25"/>
       <c r="F188" s="25"/>
@@ -14311,13 +14929,13 @@
     </row>
     <row r="189" spans="2:7">
       <c r="B189" s="23" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C189" s="24" t="s">
         <v>215</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E189" s="25"/>
       <c r="F189" s="25"/>
@@ -14331,7 +14949,7 @@
         <v>215</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E190" s="25"/>
       <c r="F190" s="25"/>
@@ -14359,7 +14977,7 @@
         <v>215</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E192" s="25"/>
       <c r="F192" s="25"/>
@@ -14373,7 +14991,7 @@
         <v>215</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E193" s="25"/>
       <c r="F193" s="25"/>
@@ -14381,13 +14999,13 @@
     </row>
     <row r="194" spans="2:7">
       <c r="B194" s="23" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C194" s="24" t="s">
         <v>215</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E194" s="25"/>
       <c r="F194" s="25"/>
@@ -14445,10 +15063,10 @@
     </row>
     <row r="200" spans="2:7" ht="23.25" customHeight="1">
       <c r="B200" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C200" s="160" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D200" s="161"/>
       <c r="E200" s="9" t="s">
@@ -14515,13 +15133,13 @@
     </row>
     <row r="204" spans="2:7">
       <c r="B204" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C204" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E204" s="25"/>
       <c r="F204" s="25"/>
@@ -14529,13 +15147,13 @@
     </row>
     <row r="205" spans="2:7">
       <c r="B205" s="47" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E205" s="25"/>
       <c r="F205" s="25"/>
@@ -14543,13 +15161,13 @@
     </row>
     <row r="206" spans="2:7">
       <c r="B206" s="47" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E206" s="25"/>
       <c r="F206" s="25"/>
@@ -14557,13 +15175,13 @@
     </row>
     <row r="207" spans="2:7">
       <c r="B207" s="47" t="s">
+        <v>839</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="D207" s="25" t="s">
         <v>840</v>
-      </c>
-      <c r="C207" s="24" t="s">
-        <v>823</v>
-      </c>
-      <c r="D207" s="25" t="s">
-        <v>841</v>
       </c>
       <c r="E207" s="25"/>
       <c r="F207" s="25"/>
@@ -14613,10 +15231,10 @@
     </row>
     <row r="213" spans="2:7" ht="23.25" customHeight="1">
       <c r="B213" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="C213" s="160" t="s">
         <v>957</v>
-      </c>
-      <c r="C213" s="160" t="s">
-        <v>958</v>
       </c>
       <c r="D213" s="161"/>
       <c r="E213" s="9" t="s">
@@ -14667,13 +15285,13 @@
     </row>
     <row r="216" spans="2:7">
       <c r="B216" s="23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C216" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E216" s="25"/>
       <c r="F216" s="25"/>
@@ -14681,13 +15299,13 @@
     </row>
     <row r="217" spans="2:7">
       <c r="B217" s="47" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C217" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E217" s="25"/>
       <c r="F217" s="25"/>
@@ -14695,13 +15313,13 @@
     </row>
     <row r="218" spans="2:7">
       <c r="B218" s="47" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C218" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E218" s="25"/>
       <c r="F218" s="25"/>
@@ -14751,10 +15369,10 @@
     </row>
     <row r="224" spans="2:7" ht="23.25" customHeight="1">
       <c r="B224" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="C224" s="160" t="s">
         <v>971</v>
-      </c>
-      <c r="C224" s="160" t="s">
-        <v>972</v>
       </c>
       <c r="D224" s="161"/>
       <c r="E224" s="9" t="s">
@@ -14805,13 +15423,13 @@
     </row>
     <row r="227" spans="2:7">
       <c r="B227" s="23" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C227" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E227" s="25"/>
       <c r="F227" s="25"/>
@@ -14819,13 +15437,13 @@
     </row>
     <row r="228" spans="2:7">
       <c r="B228" s="47" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C228" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E228" s="25"/>
       <c r="F228" s="25"/>
@@ -14833,13 +15451,13 @@
     </row>
     <row r="229" spans="2:7">
       <c r="B229" s="47" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C229" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E229" s="25"/>
       <c r="F229" s="25"/>
@@ -14889,10 +15507,10 @@
     </row>
     <row r="235" spans="2:7" ht="23.25" customHeight="1">
       <c r="B235" s="8" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C235" s="160" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D235" s="161"/>
       <c r="E235" s="9" t="s">
@@ -14923,13 +15541,13 @@
     </row>
     <row r="237" spans="2:7">
       <c r="B237" s="14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C237" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E237" s="17"/>
       <c r="F237" s="17"/>
@@ -14939,13 +15557,13 @@
     </row>
     <row r="238" spans="2:7">
       <c r="B238" s="26" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C238" s="15" t="s">
         <v>1174</v>
       </c>
-      <c r="C238" s="15" t="s">
+      <c r="D238" s="16" t="s">
         <v>1175</v>
-      </c>
-      <c r="D238" s="16" t="s">
-        <v>1176</v>
       </c>
       <c r="E238" s="17"/>
       <c r="F238" s="17"/>
@@ -14955,34 +15573,34 @@
     </row>
     <row r="239" spans="2:7">
       <c r="B239" s="26" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E239" s="17"/>
       <c r="F239" s="17"/>
       <c r="G239" s="17" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="240" spans="2:7">
       <c r="B240" s="26" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C240" s="15" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D240" s="16" t="s">
         <v>1346</v>
-      </c>
-      <c r="D240" s="16" t="s">
-        <v>1347</v>
       </c>
       <c r="E240" s="17"/>
       <c r="F240" s="17"/>
       <c r="G240" s="22" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="241" spans="2:7">
@@ -15007,13 +15625,13 @@
     </row>
     <row r="242" spans="2:7">
       <c r="B242" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C242" s="15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D242" s="16" t="s">
         <v>1177</v>
-      </c>
-      <c r="C242" s="15" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D242" s="16" t="s">
-        <v>1178</v>
       </c>
       <c r="E242" s="23"/>
       <c r="F242" s="23"/>
@@ -15063,10 +15681,10 @@
     </row>
     <row r="248" spans="2:7" ht="23.25" customHeight="1">
       <c r="B248" s="8" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C248" s="160" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D248" s="161"/>
       <c r="E248" s="9" t="s">
@@ -15097,13 +15715,13 @@
     </row>
     <row r="250" spans="2:7">
       <c r="B250" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C250" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E250" s="17"/>
       <c r="F250" s="17"/>
@@ -15113,13 +15731,13 @@
     </row>
     <row r="251" spans="2:7">
       <c r="B251" s="26" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C251" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D251" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E251" s="17"/>
       <c r="F251" s="17"/>
@@ -15191,10 +15809,10 @@
     </row>
     <row r="258" spans="2:7" ht="23.25" customHeight="1">
       <c r="B258" s="8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C258" s="160" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D258" s="161"/>
       <c r="E258" s="9" t="s">
@@ -15225,13 +15843,13 @@
     </row>
     <row r="260" spans="2:7">
       <c r="B260" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C260" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E260" s="17"/>
       <c r="F260" s="17"/>
@@ -15261,13 +15879,13 @@
     </row>
     <row r="262" spans="2:7">
       <c r="B262" s="26" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E262" s="23"/>
       <c r="F262" s="23"/>
@@ -15275,13 +15893,13 @@
     </row>
     <row r="263" spans="2:7">
       <c r="B263" s="47" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C263" s="56" t="s">
         <v>17</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E263" s="23"/>
       <c r="F263" s="23"/>
@@ -15289,13 +15907,13 @@
     </row>
     <row r="264" spans="2:7">
       <c r="B264" s="47" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C264" s="56" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D264" s="16" t="s">
         <v>1188</v>
-      </c>
-      <c r="D264" s="16" t="s">
-        <v>1189</v>
       </c>
       <c r="E264" s="23"/>
       <c r="F264" s="23"/>
@@ -15303,13 +15921,13 @@
     </row>
     <row r="265" spans="2:7">
       <c r="B265" s="124" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C265" s="56" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E265" s="23"/>
       <c r="F265" s="23"/>
@@ -15317,13 +15935,13 @@
     </row>
     <row r="266" spans="2:7">
       <c r="B266" s="47" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C266" s="56" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D266" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E266" s="23"/>
       <c r="F266" s="23"/>
@@ -15331,13 +15949,13 @@
     </row>
     <row r="267" spans="2:7">
       <c r="B267" s="47" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C267" s="56" t="s">
         <v>17</v>
       </c>
       <c r="D267" s="16" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E267" s="23"/>
       <c r="F267" s="23"/>
@@ -15345,13 +15963,13 @@
     </row>
     <row r="268" spans="2:7">
       <c r="B268" s="47" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C268" s="56" t="s">
         <v>1186</v>
       </c>
-      <c r="C268" s="56" t="s">
-        <v>1187</v>
-      </c>
       <c r="D268" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E268" s="23"/>
       <c r="F268" s="23"/>
@@ -15401,10 +16019,10 @@
     </row>
     <row r="274" spans="2:7" ht="23.25" customHeight="1">
       <c r="B274" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C274" s="160" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D274" s="161"/>
       <c r="E274" s="9" t="s">
@@ -15435,13 +16053,13 @@
     </row>
     <row r="276" spans="2:7">
       <c r="B276" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C276" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D276" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="17"/>
@@ -15451,13 +16069,13 @@
     </row>
     <row r="277" spans="2:7">
       <c r="B277" s="26" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C277" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="17"/>
@@ -15487,13 +16105,13 @@
     </row>
     <row r="279" spans="2:7" ht="14.25" customHeight="1">
       <c r="B279" s="23" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C279" s="24" t="s">
         <v>1202</v>
       </c>
-      <c r="C279" s="24" t="s">
+      <c r="D279" s="25" t="s">
         <v>1203</v>
-      </c>
-      <c r="D279" s="25" t="s">
-        <v>1204</v>
       </c>
       <c r="E279" s="25"/>
       <c r="F279" s="25"/>
@@ -15501,13 +16119,13 @@
     </row>
     <row r="280" spans="2:7" ht="14.25" customHeight="1">
       <c r="B280" s="23" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C280" s="24" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D280" s="25" t="s">
         <v>1213</v>
-      </c>
-      <c r="C280" s="24" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D280" s="25" t="s">
-        <v>1214</v>
       </c>
       <c r="E280" s="25"/>
       <c r="F280" s="25"/>
@@ -15535,7 +16153,7 @@
         <v>16</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E282" s="23"/>
       <c r="F282" s="23"/>
@@ -15557,10 +16175,10 @@
     </row>
     <row r="286" spans="2:7" ht="23.25" customHeight="1">
       <c r="B286" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C286" s="160" t="s">
         <v>1255</v>
-      </c>
-      <c r="C286" s="160" t="s">
-        <v>1256</v>
       </c>
       <c r="D286" s="161"/>
       <c r="E286" s="9" t="s">
@@ -15591,13 +16209,13 @@
     </row>
     <row r="288" spans="2:7">
       <c r="B288" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C288" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -15607,13 +16225,13 @@
     </row>
     <row r="289" spans="2:7">
       <c r="B289" s="26" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>1271</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" s="16" t="s">
         <v>1272</v>
-      </c>
-      <c r="D289" s="16" t="s">
-        <v>1273</v>
       </c>
       <c r="E289" s="17"/>
       <c r="F289" s="17"/>
@@ -15641,13 +16259,13 @@
     </row>
     <row r="291" spans="2:7" ht="14.25" customHeight="1">
       <c r="B291" s="17" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C291" s="24" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D291" s="25" t="s">
         <v>1259</v>
-      </c>
-      <c r="D291" s="25" t="s">
-        <v>1260</v>
       </c>
       <c r="E291" s="25"/>
       <c r="F291" s="25"/>
@@ -15655,7 +16273,7 @@
     </row>
     <row r="292" spans="2:7" ht="14.25" customHeight="1">
       <c r="B292" s="33" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C292" s="24" t="s">
         <v>299</v>
@@ -15675,7 +16293,7 @@
         <v>215</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E293" s="25"/>
       <c r="F293" s="25"/>
@@ -15689,7 +16307,7 @@
         <v>10</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E294" s="25"/>
       <c r="F294" s="25"/>
@@ -15717,7 +16335,7 @@
         <v>10</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E296" s="25"/>
       <c r="F296" s="25"/>
@@ -15753,13 +16371,13 @@
     </row>
     <row r="299" spans="2:7" ht="14.25" customHeight="1">
       <c r="B299" s="48" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C299" s="52" t="s">
         <v>17</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E299" s="25"/>
       <c r="F299" s="25"/>
@@ -15767,13 +16385,13 @@
     </row>
     <row r="300" spans="2:7" ht="14.25" customHeight="1">
       <c r="B300" s="48" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C300" s="52" t="s">
         <v>17</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E300" s="25"/>
       <c r="F300" s="25"/>
@@ -15781,13 +16399,13 @@
     </row>
     <row r="301" spans="2:7" ht="14.25" customHeight="1">
       <c r="B301" s="48" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C301" s="52" t="s">
         <v>1268</v>
       </c>
-      <c r="C301" s="52" t="s">
+      <c r="D301" s="25" t="s">
         <v>1269</v>
-      </c>
-      <c r="D301" s="25" t="s">
-        <v>1270</v>
       </c>
       <c r="E301" s="25"/>
       <c r="F301" s="25"/>
@@ -15795,13 +16413,13 @@
     </row>
     <row r="302" spans="2:7" ht="14.25" customHeight="1">
       <c r="B302" s="23" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C302" s="52" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D302" s="25" t="s">
         <v>1274</v>
-      </c>
-      <c r="D302" s="25" t="s">
-        <v>1275</v>
       </c>
       <c r="E302" s="25"/>
       <c r="F302" s="25"/>
@@ -15829,7 +16447,7 @@
         <v>16</v>
       </c>
       <c r="D304" s="25" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E304" s="23"/>
       <c r="F304" s="23"/>
@@ -15851,10 +16469,10 @@
     </row>
     <row r="308" spans="2:7" ht="23.25" customHeight="1">
       <c r="B308" s="8" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C308" s="160" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D308" s="161"/>
       <c r="E308" s="9" t="s">
@@ -15885,7 +16503,7 @@
     </row>
     <row r="310" spans="2:7">
       <c r="B310" s="14" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C310" s="15" t="s">
         <v>10</v>
@@ -15901,13 +16519,13 @@
     </row>
     <row r="311" spans="2:7">
       <c r="B311" s="26" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D311" s="16" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E311" s="17"/>
       <c r="F311" s="17"/>
@@ -15935,13 +16553,13 @@
     </row>
     <row r="313" spans="2:7" ht="14.25" customHeight="1">
       <c r="B313" s="17" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C313" s="24" t="s">
         <v>1374</v>
       </c>
-      <c r="C313" s="24" t="s">
+      <c r="D313" s="25" t="s">
         <v>1375</v>
-      </c>
-      <c r="D313" s="25" t="s">
-        <v>1376</v>
       </c>
       <c r="E313" s="25"/>
       <c r="F313" s="25"/>
@@ -15969,7 +16587,7 @@
         <v>16</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E315" s="23"/>
       <c r="F315" s="23"/>
@@ -16027,7 +16645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G83"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -16149,13 +16767,13 @@
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -16163,13 +16781,13 @@
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1">
       <c r="B9" s="23" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>1079</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>1080</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
@@ -16177,13 +16795,13 @@
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1">
       <c r="B10" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>817</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>818</v>
-      </c>
       <c r="D10" s="25" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -16191,13 +16809,13 @@
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1">
       <c r="B11" s="23" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -16225,7 +16843,7 @@
         <v>135</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -16239,7 +16857,7 @@
         <v>529</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
@@ -16247,11 +16865,11 @@
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1">
       <c r="B15" s="33" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="43" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
@@ -16259,11 +16877,11 @@
     </row>
     <row r="16" spans="2:7" ht="14.25" customHeight="1">
       <c r="B16" s="33" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="43" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
@@ -16271,7 +16889,7 @@
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1">
       <c r="B17" s="33" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="43" t="s">
@@ -16283,11 +16901,11 @@
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1">
       <c r="B18" s="33" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="43" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -16343,13 +16961,13 @@
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1">
       <c r="B23" s="33" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -16415,10 +17033,10 @@
     </row>
     <row r="29" spans="2:7" ht="30.75" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C29" s="160" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D29" s="161"/>
       <c r="E29" s="9" t="s">
@@ -16487,7 +17105,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -16515,13 +17133,13 @@
     </row>
     <row r="35" spans="2:7" ht="14.25" customHeight="1">
       <c r="B35" s="23" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>231</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
@@ -16535,7 +17153,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
@@ -16549,7 +17167,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -16569,11 +17187,11 @@
     </row>
     <row r="39" spans="2:7" ht="14.25" customHeight="1">
       <c r="B39" s="33" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="43" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
@@ -16581,7 +17199,7 @@
     </row>
     <row r="40" spans="2:7" ht="14.25" customHeight="1">
       <c r="B40" s="33" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="43" t="s">
@@ -16593,7 +17211,7 @@
     </row>
     <row r="41" spans="2:7" ht="14.25" customHeight="1">
       <c r="B41" s="33" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="43" t="s">
@@ -16653,13 +17271,13 @@
     </row>
     <row r="46" spans="2:7" ht="14.25" customHeight="1">
       <c r="B46" s="33" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
@@ -16720,7 +17338,7 @@
         <v>720</v>
       </c>
       <c r="C52" s="160" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D52" s="161"/>
       <c r="E52" s="9" t="s">
@@ -16789,7 +17407,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -16819,13 +17437,13 @@
     </row>
     <row r="58" spans="2:7" ht="14.25" customHeight="1">
       <c r="B58" s="23" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
@@ -16875,10 +17493,10 @@
     </row>
     <row r="64" spans="2:7" ht="39" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C64" s="160" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D64" s="161"/>
       <c r="E64" s="9" t="s">
@@ -16941,13 +17559,13 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="26" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -16977,13 +17595,13 @@
     </row>
     <row r="70" spans="2:7" ht="14.25" customHeight="1">
       <c r="B70" s="23" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
@@ -17033,10 +17651,10 @@
     </row>
     <row r="77" spans="2:7" ht="39" customHeight="1">
       <c r="B77" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C77" s="160" t="s">
         <v>1150</v>
-      </c>
-      <c r="C77" s="160" t="s">
-        <v>1151</v>
       </c>
       <c r="D77" s="161"/>
       <c r="E77" s="9" t="s">
@@ -17067,7 +17685,7 @@
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>10</v>
@@ -17083,7 +17701,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>10</v>
@@ -17165,11 +17783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17217,7 +17835,7 @@
     </row>
     <row r="4" spans="2:7" ht="41.25" customHeight="1">
       <c r="B4" s="8" t="s">
-        <v>809</v>
+        <v>279</v>
       </c>
       <c r="C4" s="160" t="s">
         <v>582</v>
@@ -17931,13 +18549,13 @@
     </row>
     <row r="54" spans="2:7" ht="14.25" customHeight="1">
       <c r="B54" s="48" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C54" s="52" t="s">
         <v>215</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
@@ -18015,13 +18633,13 @@
     </row>
     <row r="60" spans="2:7" ht="14.25" customHeight="1">
       <c r="B60" s="48" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>215</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
@@ -18105,7 +18723,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>14</v>
+        <v>1377</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
@@ -18221,13 +18839,13 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
@@ -18235,13 +18853,13 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -18251,13 +18869,13 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
@@ -18409,13 +19027,13 @@
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
@@ -18423,13 +19041,13 @@
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="43" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
@@ -18439,13 +19057,13 @@
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="53" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
@@ -18531,7 +19149,7 @@
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1">
       <c r="B97" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C97" s="160" t="s">
         <v>533</v>
@@ -18920,10 +19538,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G251"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
@@ -19016,7 +19634,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -19052,7 +19670,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -19104,7 +19722,7 @@
     </row>
     <row r="14" spans="2:7" ht="19.5" customHeight="1">
       <c r="B14" s="115" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C14" s="160" t="s">
         <v>97</v>
@@ -19162,7 +19780,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -19458,13 +20076,13 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="42" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C38" s="24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D38" s="43" t="s">
         <v>1062</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>1063</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
@@ -19472,13 +20090,13 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="42" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
@@ -19486,13 +20104,13 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="42" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
@@ -19500,13 +20118,13 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="42" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
@@ -19514,13 +20132,13 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="23" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
@@ -19574,10 +20192,10 @@
     </row>
     <row r="48" spans="2:7" ht="19.5" customHeight="1">
       <c r="B48" s="115" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C48" s="160" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D48" s="161"/>
       <c r="E48" s="9" t="s">
@@ -19610,13 +20228,13 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
@@ -19626,13 +20244,13 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -19662,13 +20280,13 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="23" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C53" s="24" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D53" s="25" t="s">
         <v>1095</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>1096</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
@@ -19676,7 +20294,7 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="23" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>54</v>
@@ -19942,13 +20560,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="42" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
@@ -19956,13 +20574,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="B74" s="42" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
@@ -19970,13 +20588,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="B75" s="42" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
@@ -20034,10 +20652,10 @@
     </row>
     <row r="81" spans="2:7" ht="19.5" customHeight="1">
       <c r="B81" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C81" s="160" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D81" s="161"/>
       <c r="E81" s="9" t="s">
@@ -20076,7 +20694,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
@@ -20086,13 +20704,13 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="26" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
@@ -20102,7 +20720,7 @@
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>10</v>
@@ -20122,7 +20740,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -20418,13 +21036,13 @@
     </row>
     <row r="107" spans="2:7">
       <c r="B107" s="42" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C107" s="24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D107" s="43" t="s">
         <v>1062</v>
-      </c>
-      <c r="D107" s="43" t="s">
-        <v>1063</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
@@ -20432,13 +21050,13 @@
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="42" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="43" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="25"/>
@@ -20446,13 +21064,13 @@
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="42" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="43" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
@@ -20460,13 +21078,13 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="23" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C110" s="24" t="s">
         <v>1086</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="D110" s="43" t="s">
         <v>1087</v>
-      </c>
-      <c r="D110" s="43" t="s">
-        <v>1088</v>
       </c>
       <c r="E110" s="25"/>
       <c r="F110" s="25"/>
@@ -20518,7 +21136,7 @@
     </row>
     <row r="116" spans="2:7" ht="19.5" customHeight="1">
       <c r="B116" s="116" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C116" s="165" t="s">
         <v>538</v>
@@ -20932,13 +21550,13 @@
     </row>
     <row r="144" spans="2:7">
       <c r="B144" s="42" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C144" s="24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D144" s="43" t="s">
         <v>1062</v>
-      </c>
-      <c r="D144" s="43" t="s">
-        <v>1063</v>
       </c>
       <c r="E144" s="25"/>
       <c r="F144" s="25"/>
@@ -20946,13 +21564,13 @@
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="42" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C145" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="43" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E145" s="25"/>
       <c r="F145" s="25"/>
@@ -20960,13 +21578,13 @@
     </row>
     <row r="146" spans="2:7">
       <c r="B146" s="42" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C146" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D146" s="43" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E146" s="25"/>
       <c r="F146" s="25"/>
@@ -21952,7 +22570,7 @@
         <v>351</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E218" s="25"/>
       <c r="F218" s="25"/>
@@ -22158,7 +22776,7 @@
     </row>
     <row r="236" spans="2:7" ht="27" customHeight="1">
       <c r="B236" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C236" s="160" t="s">
         <v>476</v>
@@ -22192,7 +22810,7 @@
     </row>
     <row r="238" spans="2:7">
       <c r="B238" s="14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C238" s="15" t="s">
         <v>10</v>
@@ -22208,7 +22826,7 @@
     </row>
     <row r="239" spans="2:7">
       <c r="B239" s="26" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C239" s="15" t="s">
         <v>459</v>
@@ -22430,7 +23048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:G69"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -23162,7 +23780,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -23236,10 +23854,10 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="8" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C62" s="162" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D62" s="163"/>
       <c r="E62" s="9" t="s">
@@ -23272,13 +23890,13 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -23288,13 +23906,13 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -23304,13 +23922,13 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -23385,11 +24003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D219" sqref="D219"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23987,13 +24605,13 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="47" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
@@ -24158,7 +24776,7 @@
         <v>542</v>
       </c>
       <c r="C58" s="160" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D58" s="161"/>
       <c r="E58" s="9" t="s">
@@ -24465,13 +25083,13 @@
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="109" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C79" s="110" t="s">
         <v>687</v>
       </c>
       <c r="D79" s="110" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
@@ -24479,13 +25097,13 @@
     </row>
     <row r="80" spans="2:7" s="50" customFormat="1">
       <c r="B80" s="47" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C80" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D80" s="25" t="s">
         <v>1008</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>1009</v>
       </c>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
@@ -24493,13 +25111,13 @@
     </row>
     <row r="81" spans="2:7" s="50" customFormat="1">
       <c r="B81" s="47" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E81" s="49"/>
       <c r="F81" s="49"/>
@@ -24507,13 +25125,13 @@
     </row>
     <row r="82" spans="2:7" s="50" customFormat="1">
       <c r="B82" s="47" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E82" s="49"/>
       <c r="F82" s="49"/>
@@ -24521,13 +25139,13 @@
     </row>
     <row r="83" spans="2:7" s="50" customFormat="1" ht="24">
       <c r="B83" s="47" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E83" s="49"/>
       <c r="F83" s="49"/>
@@ -24535,13 +25153,13 @@
     </row>
     <row r="84" spans="2:7" s="50" customFormat="1">
       <c r="B84" s="47" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E84" s="49"/>
       <c r="F84" s="49"/>
@@ -24549,13 +25167,13 @@
     </row>
     <row r="85" spans="2:7" s="50" customFormat="1">
       <c r="B85" s="47" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E85" s="49"/>
       <c r="F85" s="49"/>
@@ -24619,10 +25237,10 @@
     </row>
     <row r="92" spans="2:7" ht="37.5" customHeight="1">
       <c r="B92" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C92" s="160" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D92" s="161"/>
       <c r="E92" s="9" t="s">
@@ -24675,7 +25293,7 @@
         <v>10</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
@@ -24803,7 +25421,7 @@
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="109" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C104" s="110" t="s">
         <v>687</v>
@@ -24817,13 +25435,13 @@
     </row>
     <row r="105" spans="2:7" ht="90" customHeight="1">
       <c r="B105" s="47" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D105" s="55" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
@@ -24837,7 +25455,7 @@
         <v>10</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
@@ -24851,7 +25469,7 @@
         <v>10</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
@@ -24865,7 +25483,7 @@
         <v>768</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="25"/>
@@ -24960,10 +25578,10 @@
         <v>424</v>
       </c>
       <c r="C115" s="110" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D115" s="111" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E115" s="112"/>
       <c r="F115" s="112"/>
@@ -24971,13 +25589,13 @@
     </row>
     <row r="116" spans="2:7" s="50" customFormat="1">
       <c r="B116" s="47" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C116" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D116" s="25" t="s">
         <v>1008</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>1009</v>
       </c>
       <c r="E116" s="49"/>
       <c r="F116" s="49"/>
@@ -24985,13 +25603,13 @@
     </row>
     <row r="117" spans="2:7" s="50" customFormat="1">
       <c r="B117" s="47" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E117" s="49"/>
       <c r="F117" s="49"/>
@@ -24999,13 +25617,13 @@
     </row>
     <row r="118" spans="2:7" s="50" customFormat="1">
       <c r="B118" s="47" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E118" s="49"/>
       <c r="F118" s="49"/>
@@ -25013,13 +25631,13 @@
     </row>
     <row r="119" spans="2:7" s="50" customFormat="1">
       <c r="B119" s="47" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E119" s="49"/>
       <c r="F119" s="49"/>
@@ -25027,13 +25645,13 @@
     </row>
     <row r="120" spans="2:7" s="50" customFormat="1">
       <c r="B120" s="47" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E120" s="49"/>
       <c r="F120" s="49"/>
@@ -25041,13 +25659,13 @@
     </row>
     <row r="121" spans="2:7" s="50" customFormat="1">
       <c r="B121" s="47" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E121" s="49"/>
       <c r="F121" s="49"/>
@@ -25421,13 +26039,13 @@
     </row>
     <row r="149" spans="2:7" s="50" customFormat="1">
       <c r="B149" s="47" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C149" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D149" s="25" t="s">
         <v>1008</v>
-      </c>
-      <c r="D149" s="25" t="s">
-        <v>1009</v>
       </c>
       <c r="E149" s="49"/>
       <c r="F149" s="49"/>
@@ -25435,13 +26053,13 @@
     </row>
     <row r="150" spans="2:7" s="50" customFormat="1">
       <c r="B150" s="47" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E150" s="49"/>
       <c r="F150" s="49"/>
@@ -25449,13 +26067,13 @@
     </row>
     <row r="151" spans="2:7" s="50" customFormat="1">
       <c r="B151" s="47" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E151" s="49"/>
       <c r="F151" s="49"/>
@@ -25463,13 +26081,13 @@
     </row>
     <row r="152" spans="2:7" s="50" customFormat="1" ht="24">
       <c r="B152" s="47" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E152" s="49"/>
       <c r="F152" s="49"/>
@@ -25477,13 +26095,13 @@
     </row>
     <row r="153" spans="2:7" s="50" customFormat="1">
       <c r="B153" s="47" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E153" s="49"/>
       <c r="F153" s="49"/>
@@ -25491,13 +26109,13 @@
     </row>
     <row r="154" spans="2:7" s="50" customFormat="1">
       <c r="B154" s="47" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E154" s="49"/>
       <c r="F154" s="49"/>
@@ -25689,7 +26307,7 @@
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="47" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>10</v>
@@ -25927,13 +26545,13 @@
     </row>
     <row r="186" spans="2:7" s="50" customFormat="1">
       <c r="B186" s="47" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C186" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D186" s="25" t="s">
         <v>1008</v>
-      </c>
-      <c r="D186" s="25" t="s">
-        <v>1009</v>
       </c>
       <c r="E186" s="49"/>
       <c r="F186" s="49"/>
@@ -25941,13 +26559,13 @@
     </row>
     <row r="187" spans="2:7" s="50" customFormat="1">
       <c r="B187" s="47" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E187" s="49"/>
       <c r="F187" s="49"/>
@@ -25955,13 +26573,13 @@
     </row>
     <row r="188" spans="2:7" s="50" customFormat="1">
       <c r="B188" s="47" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E188" s="49"/>
       <c r="F188" s="49"/>
@@ -25969,13 +26587,13 @@
     </row>
     <row r="189" spans="2:7" s="50" customFormat="1" ht="24">
       <c r="B189" s="47" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E189" s="49"/>
       <c r="F189" s="49"/>
@@ -25983,13 +26601,13 @@
     </row>
     <row r="190" spans="2:7" s="50" customFormat="1">
       <c r="B190" s="47" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E190" s="49"/>
       <c r="F190" s="49"/>
@@ -25997,13 +26615,13 @@
     </row>
     <row r="191" spans="2:7" s="50" customFormat="1">
       <c r="B191" s="47" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E191" s="49"/>
       <c r="F191" s="49"/>
@@ -26011,7 +26629,7 @@
     </row>
     <row r="192" spans="2:7" ht="16.5" customHeight="1">
       <c r="B192" s="23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C192" s="24" t="s">
         <v>428</v>
@@ -26053,13 +26671,13 @@
     </row>
     <row r="195" spans="2:7" ht="16.5" customHeight="1">
       <c r="B195" s="23" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C195" s="24" t="s">
         <v>428</v>
       </c>
       <c r="D195" s="55" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E195" s="25"/>
       <c r="F195" s="25"/>
@@ -26371,7 +26989,7 @@
         <v>10</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E219" s="17"/>
       <c r="F219" s="17"/>
@@ -26734,7 +27352,7 @@
         <v>325</v>
       </c>
       <c r="C248" s="160" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D248" s="161"/>
       <c r="E248" s="9" t="s">
@@ -26765,13 +27383,13 @@
     </row>
     <row r="250" spans="2:7">
       <c r="B250" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C250" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E250" s="17"/>
       <c r="F250" s="17"/>
@@ -26795,13 +27413,13 @@
     </row>
     <row r="252" spans="2:7">
       <c r="B252" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C252" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D252" s="16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E252" s="17"/>
       <c r="F252" s="17"/>
@@ -26809,13 +27427,13 @@
     </row>
     <row r="253" spans="2:7">
       <c r="B253" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C253" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D253" s="43" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E253" s="17"/>
       <c r="F253" s="17"/>
@@ -26825,13 +27443,13 @@
     </row>
     <row r="254" spans="2:7">
       <c r="B254" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C254" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D254" s="53" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E254" s="17"/>
       <c r="F254" s="17"/>
@@ -26920,7 +27538,7 @@
         <v>328</v>
       </c>
       <c r="C261" s="160" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D261" s="161"/>
       <c r="E261" s="9" t="s">
@@ -26951,13 +27569,13 @@
     </row>
     <row r="263" spans="2:7">
       <c r="B263" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C263" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E263" s="17"/>
       <c r="F263" s="17"/>
@@ -26983,13 +27601,13 @@
     </row>
     <row r="265" spans="2:7">
       <c r="B265" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C265" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E265" s="17"/>
       <c r="F265" s="17"/>
@@ -26997,13 +27615,13 @@
     </row>
     <row r="266" spans="2:7">
       <c r="B266" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D266" s="43" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E266" s="17"/>
       <c r="F266" s="17"/>
@@ -27013,13 +27631,13 @@
     </row>
     <row r="267" spans="2:7">
       <c r="B267" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C267" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D267" s="53" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E267" s="17"/>
       <c r="F267" s="17"/>
@@ -27107,11 +27725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:G205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27146,7 +27764,7 @@
         <v>492</v>
       </c>
       <c r="C4" s="160" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D4" s="161"/>
       <c r="E4" s="9" t="s">
@@ -27215,7 +27833,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -27225,13 +27843,13 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -27241,13 +27859,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -27257,13 +27875,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -27273,13 +27891,13 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -27289,13 +27907,13 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C13" s="122" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -27305,13 +27923,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="90" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C14" s="88" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="89" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -27321,7 +27939,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>70</v>
@@ -27337,7 +27955,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="26" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>70</v>
@@ -27353,13 +27971,13 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -27465,7 +28083,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -27473,13 +28091,13 @@
     </row>
     <row r="25" spans="2:7" ht="14.25" customHeight="1">
       <c r="B25" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -27501,13 +28119,13 @@
     </row>
     <row r="27" spans="2:7" ht="14.25" customHeight="1">
       <c r="B27" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>1001</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="D27" s="25" t="s">
         <v>1002</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>1003</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
@@ -27597,7 +28215,7 @@
         <v>70</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -27607,13 +28225,13 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -27623,13 +28241,13 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -27639,13 +28257,13 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -27655,13 +28273,13 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -27671,13 +28289,13 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C40" s="122" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -27687,13 +28305,13 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="90" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C41" s="88" t="s">
         <v>70</v>
       </c>
       <c r="D41" s="89" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -27703,7 +28321,7 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>70</v>
@@ -27719,7 +28337,7 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="26" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>70</v>
@@ -27735,13 +28353,13 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -27751,13 +28369,13 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="26" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
@@ -27841,7 +28459,7 @@
     </row>
     <row r="51" spans="2:7" ht="14.25" customHeight="1">
       <c r="B51" s="47" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>70</v>
@@ -27869,13 +28487,13 @@
     </row>
     <row r="53" spans="2:7" ht="14.25" customHeight="1">
       <c r="B53" s="47" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
@@ -27897,13 +28515,13 @@
     </row>
     <row r="55" spans="2:7" ht="14.25" customHeight="1">
       <c r="B55" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>1001</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="D55" s="25" t="s">
         <v>1002</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>1003</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -27911,13 +28529,13 @@
     </row>
     <row r="56" spans="2:7" s="50" customFormat="1">
       <c r="B56" s="23" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
@@ -27967,10 +28585,10 @@
     </row>
     <row r="63" spans="2:7" ht="16.5" customHeight="1">
       <c r="B63" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C63" s="160" t="s">
         <v>855</v>
-      </c>
-      <c r="C63" s="160" t="s">
-        <v>856</v>
       </c>
       <c r="D63" s="161"/>
       <c r="E63" s="9" t="s">
@@ -28065,13 +28683,13 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="42" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
@@ -28079,7 +28697,7 @@
     </row>
     <row r="70" spans="2:7" ht="14.25" customHeight="1">
       <c r="B70" s="47" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>70</v>
@@ -28093,7 +28711,7 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="42" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>70</v>
@@ -28107,7 +28725,7 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="42" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>13</v>
@@ -28121,7 +28739,7 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="42" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>13</v>
@@ -28135,7 +28753,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="42" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>17</v>
@@ -28149,13 +28767,13 @@
     </row>
     <row r="75" spans="2:7" ht="14.25" customHeight="1">
       <c r="B75" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
@@ -28163,13 +28781,13 @@
     </row>
     <row r="76" spans="2:7" ht="14.25" customHeight="1">
       <c r="B76" s="47" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C76" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
@@ -28177,13 +28795,13 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="42" t="s">
+        <v>859</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>860</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="D77" s="25" t="s">
         <v>861</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>862</v>
       </c>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
@@ -28211,7 +28829,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
@@ -28225,7 +28843,7 @@
         <v>13</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
@@ -28233,13 +28851,13 @@
     </row>
     <row r="81" spans="2:7" ht="14.25" customHeight="1">
       <c r="B81" s="47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>344</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
@@ -28247,13 +28865,13 @@
     </row>
     <row r="82" spans="2:7" ht="14.25" customHeight="1">
       <c r="B82" s="47" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
@@ -28261,13 +28879,13 @@
     </row>
     <row r="83" spans="2:7" ht="14.25" customHeight="1">
       <c r="B83" s="47" t="s">
+        <v>876</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>877</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>878</v>
-      </c>
       <c r="D83" s="25" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
@@ -28275,13 +28893,13 @@
     </row>
     <row r="84" spans="2:7" ht="14.25" customHeight="1">
       <c r="B84" s="48" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
@@ -28289,7 +28907,7 @@
     </row>
     <row r="85" spans="2:7" ht="14.25" customHeight="1">
       <c r="B85" s="47" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C85" s="24" t="s">
         <v>552</v>
@@ -28345,10 +28963,10 @@
     </row>
     <row r="91" spans="2:7" ht="39" customHeight="1">
       <c r="B91" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C91" s="160" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D91" s="161"/>
       <c r="E91" s="9" t="s">
@@ -28390,23 +29008,23 @@
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="22" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="26" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D94" s="114" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="22" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="95" spans="2:7">
@@ -28417,7 +29035,7 @@
         <v>70</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
@@ -28459,7 +29077,7 @@
     </row>
     <row r="98" spans="2:7" ht="14.25" customHeight="1">
       <c r="B98" s="33" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C98" s="24" t="s">
         <v>10</v>
@@ -28473,7 +29091,7 @@
     </row>
     <row r="99" spans="2:7" ht="14.25" customHeight="1">
       <c r="B99" s="33" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C99" s="24" t="s">
         <v>17</v>
@@ -28547,7 +29165,7 @@
     </row>
     <row r="105" spans="2:7" ht="14.25" customHeight="1">
       <c r="B105" s="33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="43" t="s">
@@ -28583,13 +29201,13 @@
     </row>
     <row r="108" spans="2:7" ht="14.25" customHeight="1">
       <c r="B108" s="33" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="25"/>
@@ -28597,13 +29215,13 @@
     </row>
     <row r="109" spans="2:7" ht="32.25" customHeight="1">
       <c r="B109" s="33" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
@@ -28717,13 +29335,13 @@
     </row>
     <row r="119" spans="2:7" ht="264">
       <c r="B119" s="26" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
@@ -28737,7 +29355,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E120" s="21" t="s">
         <v>7</v>
@@ -28751,13 +29369,13 @@
     </row>
     <row r="121" spans="2:7" ht="14.25" customHeight="1">
       <c r="B121" s="23" t="s">
+        <v>894</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>895</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="D121" s="43" t="s">
         <v>896</v>
-      </c>
-      <c r="D121" s="43" t="s">
-        <v>897</v>
       </c>
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
@@ -28765,13 +29383,13 @@
     </row>
     <row r="122" spans="2:7" ht="14.25" customHeight="1">
       <c r="B122" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C122" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="D122" s="43" t="s">
         <v>898</v>
-      </c>
-      <c r="D122" s="43" t="s">
-        <v>899</v>
       </c>
       <c r="E122" s="25"/>
       <c r="F122" s="25"/>
@@ -28779,13 +29397,13 @@
     </row>
     <row r="123" spans="2:7" ht="14.25" customHeight="1">
       <c r="B123" s="23" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C123" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="43" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E123" s="25"/>
       <c r="F123" s="25"/>
@@ -28799,7 +29417,7 @@
         <v>13</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25"/>
@@ -28813,7 +29431,7 @@
         <v>16</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E125" s="23"/>
       <c r="F125" s="23"/>
@@ -28835,10 +29453,10 @@
     </row>
     <row r="130" spans="2:7" ht="16.5" customHeight="1">
       <c r="B130" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C130" s="160" t="s">
         <v>1113</v>
-      </c>
-      <c r="C130" s="160" t="s">
-        <v>1114</v>
       </c>
       <c r="D130" s="161"/>
       <c r="E130" s="9" t="s">
@@ -28869,29 +29487,29 @@
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="26" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E132" s="17"/>
       <c r="F132" s="17"/>
       <c r="G132" s="22" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="133" spans="2:7">
       <c r="B133" s="26" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E133" s="17"/>
       <c r="F133" s="17"/>
@@ -28901,7 +29519,7 @@
     </row>
     <row r="134" spans="2:7" ht="14.25" customHeight="1">
       <c r="B134" s="26" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>70</v>
@@ -28935,13 +29553,13 @@
     </row>
     <row r="136" spans="2:7" ht="14.25" customHeight="1">
       <c r="B136" s="23" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C136" s="24" t="s">
         <v>1121</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="D136" s="25" t="s">
         <v>1122</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>1123</v>
       </c>
       <c r="E136" s="25"/>
       <c r="F136" s="25"/>
@@ -28949,13 +29567,13 @@
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="47" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C137" s="24" t="s">
         <v>1128</v>
       </c>
-      <c r="C137" s="24" t="s">
-        <v>1129</v>
-      </c>
       <c r="D137" s="25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E137" s="25"/>
       <c r="F137" s="25"/>
@@ -28963,13 +29581,13 @@
     </row>
     <row r="138" spans="2:7">
       <c r="B138" s="47" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E138" s="25"/>
       <c r="F138" s="25"/>
@@ -28977,13 +29595,13 @@
     </row>
     <row r="139" spans="2:7" ht="14.25" customHeight="1">
       <c r="B139" s="47" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E139" s="25"/>
       <c r="F139" s="25"/>
@@ -28991,13 +29609,13 @@
     </row>
     <row r="140" spans="2:7" ht="14.25" customHeight="1">
       <c r="B140" s="47" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E140" s="25"/>
       <c r="F140" s="25"/>
@@ -29005,13 +29623,13 @@
     </row>
     <row r="141" spans="2:7" ht="14.25" customHeight="1">
       <c r="B141" s="42" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C141" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="43" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E141" s="25"/>
       <c r="F141" s="25"/>
@@ -29019,13 +29637,13 @@
     </row>
     <row r="142" spans="2:7" ht="14.25" customHeight="1">
       <c r="B142" s="47" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E142" s="25"/>
       <c r="F142" s="25"/>
@@ -29033,13 +29651,13 @@
     </row>
     <row r="143" spans="2:7" ht="14.25" customHeight="1">
       <c r="B143" s="47" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C143" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E143" s="25"/>
       <c r="F143" s="25"/>
@@ -29047,13 +29665,13 @@
     </row>
     <row r="144" spans="2:7" ht="14.25" customHeight="1">
       <c r="B144" s="47" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C144" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E144" s="25"/>
       <c r="F144" s="25"/>
@@ -29061,13 +29679,13 @@
     </row>
     <row r="145" spans="2:7" s="50" customFormat="1">
       <c r="B145" s="23" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C145" s="24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D145" s="25" t="s">
         <v>1124</v>
-      </c>
-      <c r="D145" s="25" t="s">
-        <v>1125</v>
       </c>
       <c r="E145" s="49"/>
       <c r="F145" s="49"/>
@@ -29117,10 +29735,10 @@
     </row>
     <row r="151" spans="2:7" ht="16.5" customHeight="1">
       <c r="B151" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C151" s="160" t="s">
         <v>1217</v>
-      </c>
-      <c r="C151" s="160" t="s">
-        <v>1218</v>
       </c>
       <c r="D151" s="161"/>
       <c r="E151" s="9" t="s">
@@ -29151,13 +29769,13 @@
     </row>
     <row r="153" spans="2:7">
       <c r="B153" s="26" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
@@ -29187,13 +29805,13 @@
     </row>
     <row r="155" spans="2:7" ht="14.25" customHeight="1">
       <c r="B155" s="23" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C155" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
@@ -29201,13 +29819,13 @@
     </row>
     <row r="156" spans="2:7">
       <c r="B156" s="47" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C156" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E156" s="25"/>
       <c r="F156" s="25"/>
@@ -29215,13 +29833,13 @@
     </row>
     <row r="157" spans="2:7">
       <c r="B157" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C157" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E157" s="25"/>
       <c r="F157" s="25"/>
@@ -29229,13 +29847,13 @@
     </row>
     <row r="158" spans="2:7" ht="14.25" customHeight="1">
       <c r="B158" s="47" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C158" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E158" s="25"/>
       <c r="F158" s="25"/>
@@ -29243,13 +29861,13 @@
     </row>
     <row r="159" spans="2:7" ht="14.25" customHeight="1">
       <c r="B159" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C159" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
@@ -29257,13 +29875,13 @@
     </row>
     <row r="160" spans="2:7" ht="14.25" customHeight="1">
       <c r="B160" s="42" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C160" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="43" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E160" s="25"/>
       <c r="F160" s="25"/>
@@ -29271,13 +29889,13 @@
     </row>
     <row r="161" spans="2:7" ht="14.25" customHeight="1">
       <c r="B161" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C161" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E161" s="25"/>
       <c r="F161" s="25"/>
@@ -29285,13 +29903,13 @@
     </row>
     <row r="162" spans="2:7" ht="14.25" customHeight="1">
       <c r="B162" s="47" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C162" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E162" s="25"/>
       <c r="F162" s="25"/>
@@ -29299,13 +29917,13 @@
     </row>
     <row r="163" spans="2:7" ht="14.25" customHeight="1">
       <c r="B163" s="47" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C163" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
@@ -29355,10 +29973,10 @@
     </row>
     <row r="169" spans="2:7" ht="16.5" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C169" s="160" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D169" s="161"/>
       <c r="E169" s="9" t="s">
@@ -29389,13 +30007,13 @@
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="26" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E171" s="17"/>
       <c r="F171" s="17"/>
@@ -29425,13 +30043,13 @@
     </row>
     <row r="173" spans="2:7" ht="14.25" customHeight="1">
       <c r="B173" s="23" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C173" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E173" s="25"/>
       <c r="F173" s="25"/>
@@ -29439,13 +30057,13 @@
     </row>
     <row r="174" spans="2:7">
       <c r="B174" s="47" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C174" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E174" s="25"/>
       <c r="F174" s="25"/>
@@ -29453,13 +30071,13 @@
     </row>
     <row r="175" spans="2:7">
       <c r="B175" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C175" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E175" s="25"/>
       <c r="F175" s="25"/>
@@ -29467,13 +30085,13 @@
     </row>
     <row r="176" spans="2:7" ht="14.25" customHeight="1">
       <c r="B176" s="47" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C176" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E176" s="25"/>
       <c r="F176" s="25"/>
@@ -29481,13 +30099,13 @@
     </row>
     <row r="177" spans="2:7" ht="14.25" customHeight="1">
       <c r="B177" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C177" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E177" s="25"/>
       <c r="F177" s="25"/>
@@ -29495,13 +30113,13 @@
     </row>
     <row r="178" spans="2:7" ht="14.25" customHeight="1">
       <c r="B178" s="42" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C178" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D178" s="43" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E178" s="25"/>
       <c r="F178" s="25"/>
@@ -29509,13 +30127,13 @@
     </row>
     <row r="179" spans="2:7" ht="14.25" customHeight="1">
       <c r="B179" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C179" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E179" s="25"/>
       <c r="F179" s="25"/>
@@ -29523,13 +30141,13 @@
     </row>
     <row r="180" spans="2:7" ht="14.25" customHeight="1">
       <c r="B180" s="47" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C180" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E180" s="25"/>
       <c r="F180" s="25"/>
@@ -29537,13 +30155,13 @@
     </row>
     <row r="181" spans="2:7" ht="14.25" customHeight="1">
       <c r="B181" s="47" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C181" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E181" s="25"/>
       <c r="F181" s="25"/>
@@ -29551,13 +30169,13 @@
     </row>
     <row r="182" spans="2:7" ht="14.25" customHeight="1">
       <c r="B182" s="47" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C182" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E182" s="25"/>
       <c r="F182" s="25"/>
@@ -29607,10 +30225,10 @@
     </row>
     <row r="188" spans="2:7" ht="16.5" customHeight="1">
       <c r="B188" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C188" s="160" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D188" s="161"/>
       <c r="E188" s="9" t="s">
@@ -29641,13 +30259,13 @@
     </row>
     <row r="190" spans="2:7">
       <c r="B190" s="26" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C190" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="17"/>
@@ -29657,13 +30275,13 @@
     </row>
     <row r="191" spans="2:7">
       <c r="B191" s="26" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E191" s="17"/>
       <c r="F191" s="17"/>
@@ -29691,13 +30309,13 @@
     </row>
     <row r="193" spans="2:7" ht="14.25" customHeight="1">
       <c r="B193" s="23" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C193" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E193" s="25"/>
       <c r="F193" s="25"/>
@@ -29705,13 +30323,13 @@
     </row>
     <row r="194" spans="2:7">
       <c r="B194" s="47" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C194" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E194" s="25"/>
       <c r="F194" s="25"/>
@@ -29719,13 +30337,13 @@
     </row>
     <row r="195" spans="2:7">
       <c r="B195" s="47" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C195" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E195" s="25"/>
       <c r="F195" s="25"/>
@@ -29733,13 +30351,13 @@
     </row>
     <row r="196" spans="2:7" ht="14.25" customHeight="1">
       <c r="B196" s="47" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C196" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E196" s="25"/>
       <c r="F196" s="25"/>
@@ -29747,13 +30365,13 @@
     </row>
     <row r="197" spans="2:7" ht="14.25" customHeight="1">
       <c r="B197" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C197" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E197" s="25"/>
       <c r="F197" s="25"/>
@@ -29761,13 +30379,13 @@
     </row>
     <row r="198" spans="2:7" ht="14.25" customHeight="1">
       <c r="B198" s="42" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C198" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D198" s="43" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E198" s="25"/>
       <c r="F198" s="25"/>
@@ -29775,13 +30393,13 @@
     </row>
     <row r="199" spans="2:7" ht="14.25" customHeight="1">
       <c r="B199" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C199" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E199" s="25"/>
       <c r="F199" s="25"/>
@@ -29789,13 +30407,13 @@
     </row>
     <row r="200" spans="2:7" ht="14.25" customHeight="1">
       <c r="B200" s="47" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C200" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E200" s="25"/>
       <c r="F200" s="25"/>
@@ -29803,13 +30421,13 @@
     </row>
     <row r="201" spans="2:7" ht="14.25" customHeight="1">
       <c r="B201" s="47" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C201" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E201" s="25"/>
       <c r="F201" s="25"/>
@@ -29817,13 +30435,13 @@
     </row>
     <row r="202" spans="2:7" ht="14.25" customHeight="1">
       <c r="B202" s="23" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C202" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E202" s="25"/>
       <c r="F202" s="25"/>
@@ -29831,13 +30449,13 @@
     </row>
     <row r="203" spans="2:7" ht="14.25" customHeight="1">
       <c r="B203" s="23" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C203" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E203" s="25"/>
       <c r="F203" s="25"/>
